--- a/Code/Results/Cases/Case_4_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.319410669366107</v>
+        <v>0.8363156171869264</v>
       </c>
       <c r="C2">
-        <v>0.09340239823458774</v>
+        <v>0.1117734916592923</v>
       </c>
       <c r="D2">
-        <v>0.194478499083317</v>
+        <v>0.07783525045276463</v>
       </c>
       <c r="E2">
-        <v>0.06753358061028081</v>
+        <v>0.1024704006889756</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008168661558312641</v>
+        <v>0.002491063255316643</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.054908075735085</v>
+        <v>0.4541948751577252</v>
       </c>
       <c r="L2">
-        <v>0.2552613684496805</v>
+        <v>0.2043373006987821</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.009322153558777</v>
+        <v>2.087643721067938</v>
       </c>
       <c r="O2">
-        <v>2.623190536239974</v>
+        <v>4.667196951816209</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.15076925572896</v>
+        <v>0.7930457608114807</v>
       </c>
       <c r="C3">
-        <v>0.09038838857054543</v>
+        <v>0.1106515677999624</v>
       </c>
       <c r="D3">
-        <v>0.1686636040883371</v>
+        <v>0.07070596847079003</v>
       </c>
       <c r="E3">
-        <v>0.06286459236700992</v>
+        <v>0.1018676378114058</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008212776571588365</v>
+        <v>0.002493974534854532</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9150594301883643</v>
+        <v>0.4155658996021145</v>
       </c>
       <c r="L3">
-        <v>0.2252540382389867</v>
+        <v>0.197327879259106</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.055746567610317</v>
+        <v>2.107374676167275</v>
       </c>
       <c r="O3">
-        <v>2.535658032372169</v>
+        <v>4.673320793562823</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.048029737055145</v>
+        <v>0.7668591186546792</v>
       </c>
       <c r="C4">
-        <v>0.08853527069998535</v>
+        <v>0.1099532293252281</v>
       </c>
       <c r="D4">
-        <v>0.1529681837793504</v>
+        <v>0.06636338544122111</v>
       </c>
       <c r="E4">
-        <v>0.06008987109081332</v>
+        <v>0.1015473777051668</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008240765325180665</v>
+        <v>0.00249585844233875</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.829623779384832</v>
+        <v>0.3919950610853959</v>
       </c>
       <c r="L4">
-        <v>0.2070833768529639</v>
+        <v>0.1931363442196528</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.085563882028588</v>
+        <v>2.120133075942984</v>
       </c>
       <c r="O4">
-        <v>2.486501348442857</v>
+        <v>4.679344104076307</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.006341626094724</v>
+        <v>0.7562842168974555</v>
       </c>
       <c r="C5">
-        <v>0.08777920432268616</v>
+        <v>0.1096662779686355</v>
       </c>
       <c r="D5">
-        <v>0.146606459971494</v>
+        <v>0.06460250007175716</v>
       </c>
       <c r="E5">
-        <v>0.0589810022665489</v>
+        <v>0.1014294161733886</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008252402086307487</v>
+        <v>0.002496650456142199</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7948984417418785</v>
+        <v>0.3824272049627666</v>
       </c>
       <c r="L5">
-        <v>0.1997368010654981</v>
+        <v>0.1914565384443279</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.098036275255136</v>
+        <v>2.125494014435709</v>
       </c>
       <c r="O5">
-        <v>2.467565380077275</v>
+        <v>4.682367818351679</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9994294907565688</v>
+        <v>0.754534097803969</v>
       </c>
       <c r="C6">
-        <v>0.08765359768518266</v>
+        <v>0.1096184868787589</v>
       </c>
       <c r="D6">
-        <v>0.145552038742224</v>
+        <v>0.064310634898888</v>
       </c>
       <c r="E6">
-        <v>0.05879815864974347</v>
+        <v>0.1014105869972219</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008254348443306381</v>
+        <v>0.002496783439427212</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7891372711494284</v>
+        <v>0.3808407423757956</v>
       </c>
       <c r="L6">
-        <v>0.1985202556745804</v>
+        <v>0.1911793172945409</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10012649174142</v>
+        <v>2.126393964899123</v>
       </c>
       <c r="O6">
-        <v>2.46448561999739</v>
+        <v>4.682904281780651</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.047466822099636</v>
+        <v>0.7667161109718847</v>
       </c>
       <c r="C7">
-        <v>0.08852507814225419</v>
+        <v>0.1099493689946627</v>
       </c>
       <c r="D7">
-        <v>0.1528822545512298</v>
+        <v>0.06633960209191514</v>
       </c>
       <c r="E7">
-        <v>0.06007482968223599</v>
+        <v>0.1015457360123797</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008240921321516415</v>
+        <v>0.002495869025285553</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8291551187429036</v>
+        <v>0.3918658735122165</v>
       </c>
       <c r="L7">
-        <v>0.2069840704234593</v>
+        <v>0.193113575210603</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.085730797786002</v>
+        <v>2.120204720407674</v>
       </c>
       <c r="O7">
-        <v>2.48624160907022</v>
+        <v>4.679382578347031</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.261080804579024</v>
+        <v>0.8213173354588434</v>
       </c>
       <c r="C8">
-        <v>0.09236351379335872</v>
+        <v>0.1113886235954382</v>
       </c>
       <c r="D8">
-        <v>0.1855424378308612</v>
+        <v>0.07536984118594603</v>
       </c>
       <c r="E8">
-        <v>0.06590380532153262</v>
+        <v>0.1022522323942461</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008183687875043651</v>
+        <v>0.00249204710703177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.006587263185196</v>
+        <v>0.4408451921290464</v>
       </c>
       <c r="L8">
-        <v>0.2448585701756372</v>
+        <v>0.2018971735254098</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.025051652596751</v>
+        <v>2.094313376982566</v>
       </c>
       <c r="O8">
-        <v>2.592021008248651</v>
+        <v>4.668838737293044</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.687543435779276</v>
+        <v>0.9313990331465334</v>
       </c>
       <c r="C9">
-        <v>0.09988470860454868</v>
+        <v>0.1141355475589734</v>
       </c>
       <c r="D9">
-        <v>0.2510460758151396</v>
+        <v>0.09335558895557483</v>
       </c>
       <c r="E9">
-        <v>0.07812722897912039</v>
+        <v>0.1040326659131665</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008078403440537805</v>
+        <v>0.002485313654592888</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.358850716968135</v>
+        <v>0.5380532003003964</v>
       </c>
       <c r="L9">
-        <v>0.3214236478865899</v>
+        <v>0.220011791889192</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9168756181530355</v>
+        <v>2.048647125427024</v>
       </c>
       <c r="O9">
-        <v>2.838654834099486</v>
+        <v>4.666122741748751</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.007231799357953</v>
+        <v>1.014098052923998</v>
       </c>
       <c r="C10">
-        <v>0.105428516797609</v>
+        <v>0.1161075012547528</v>
       </c>
       <c r="D10">
-        <v>0.3003993234043065</v>
+        <v>0.1067418457980409</v>
       </c>
       <c r="E10">
-        <v>0.08768404446884404</v>
+        <v>0.1055812311562043</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008004982377019008</v>
+        <v>0.002480826033252774</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.621640119588477</v>
+        <v>0.6101720689757144</v>
       </c>
       <c r="L10">
-        <v>0.3794909259125347</v>
+        <v>0.2338636877011027</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8445826644807539</v>
+        <v>2.018209023833151</v>
       </c>
       <c r="O10">
-        <v>3.047912514021704</v>
+        <v>4.675087370947722</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.154470838107102</v>
+        <v>1.052113575151054</v>
       </c>
       <c r="C11">
-        <v>0.1079598204050356</v>
+        <v>0.1169945250511617</v>
       </c>
       <c r="D11">
-        <v>0.3231991949600541</v>
+        <v>0.1128696878230784</v>
       </c>
       <c r="E11">
-        <v>0.09217902364870767</v>
+        <v>0.1063378830838566</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007972362684117516</v>
+        <v>0.002478883268352783</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.742379558273399</v>
+        <v>0.6431318509854975</v>
       </c>
       <c r="L11">
-        <v>0.4064013572593552</v>
+        <v>0.240283412380677</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.813396738749617</v>
+        <v>2.005037845377107</v>
       </c>
       <c r="O11">
-        <v>3.150200630407795</v>
+        <v>4.681548396607411</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.210524412445579</v>
+        <v>1.066565533051062</v>
       </c>
       <c r="C12">
-        <v>0.1089201978753707</v>
+        <v>0.1173289689393116</v>
       </c>
       <c r="D12">
-        <v>0.3318902959996137</v>
+        <v>0.1151956841728463</v>
       </c>
       <c r="E12">
-        <v>0.09390435088748816</v>
+        <v>0.1066319040977213</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007960116261594985</v>
+        <v>0.002478161707961562</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.788301242006014</v>
+        <v>0.6556345420018488</v>
       </c>
       <c r="L12">
-        <v>0.4166717855397053</v>
+        <v>0.2427314045077935</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8018450440661944</v>
+        <v>2.000147408409763</v>
       </c>
       <c r="O12">
-        <v>3.190045014800518</v>
+        <v>4.684337805304551</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.198438429092278</v>
+        <v>1.063450549806191</v>
       </c>
       <c r="C13">
-        <v>0.1087132740173971</v>
+        <v>0.1172570052473745</v>
       </c>
       <c r="D13">
-        <v>0.3300158449801671</v>
+        <v>0.1146944939655015</v>
       </c>
       <c r="E13">
-        <v>0.09353170725242776</v>
+        <v>0.106568248353458</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007962749138738541</v>
+        <v>0.002478316481814041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.778401801587137</v>
+        <v>0.6529409122864251</v>
       </c>
       <c r="L13">
-        <v>0.4144561581571509</v>
+        <v>0.2422034311043859</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8043212237662196</v>
+        <v>2.0011963267807</v>
       </c>
       <c r="O13">
-        <v>3.181412937517649</v>
+        <v>4.683721810490908</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.159076218461053</v>
+        <v>1.053301421101082</v>
       </c>
       <c r="C14">
-        <v>0.1080387917087862</v>
+        <v>0.1170220691291775</v>
       </c>
       <c r="D14">
-        <v>0.3239130262988397</v>
+        <v>0.1130609384131844</v>
       </c>
       <c r="E14">
-        <v>0.09232049112584662</v>
+        <v>0.1063619222674248</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007971353077290366</v>
+        <v>0.002478823622329494</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.746153378128071</v>
+        <v>0.6441600255554363</v>
       </c>
       <c r="L14">
-        <v>0.4072446547750985</v>
+        <v>0.2404844701033539</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8124411290556779</v>
+        <v>2.004633557519082</v>
       </c>
       <c r="O14">
-        <v>3.153455864836104</v>
+        <v>4.681771013023848</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.135005595536825</v>
+        <v>1.047092103157581</v>
       </c>
       <c r="C15">
-        <v>0.107625904792144</v>
+        <v>0.1168779744587525</v>
       </c>
       <c r="D15">
-        <v>0.3201825542799668</v>
+        <v>0.1120610567041496</v>
       </c>
       <c r="E15">
-        <v>0.09158166515807409</v>
+        <v>0.1062365170453639</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000797663684391603</v>
+        <v>0.002479136097850057</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.726427251581839</v>
+        <v>0.6387842717812475</v>
       </c>
       <c r="L15">
-        <v>0.4028380960496065</v>
+        <v>0.2394337669467603</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8174487803607526</v>
+        <v>2.006751622243254</v>
       </c>
       <c r="O15">
-        <v>3.136478700791031</v>
+        <v>4.680620733239948</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.997648916998799</v>
+        <v>1.0116215576939</v>
       </c>
       <c r="C16">
-        <v>0.1052633189121508</v>
+        <v>0.116049329455123</v>
       </c>
       <c r="D16">
-        <v>0.2989169144632626</v>
+        <v>0.106342148830862</v>
       </c>
       <c r="E16">
-        <v>0.08739342016251683</v>
+        <v>0.105532831478655</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008007129323617246</v>
+        <v>0.002480954977488957</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.61377594164685</v>
+        <v>0.6080211052189384</v>
       </c>
       <c r="L16">
-        <v>0.3777429707109974</v>
+        <v>0.2334465225634261</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8466560623944055</v>
+        <v>2.019083387883743</v>
       </c>
       <c r="O16">
-        <v>3.041378042800801</v>
+        <v>4.674713086844179</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.913874297793029</v>
+        <v>0.9899623928012886</v>
       </c>
       <c r="C17">
-        <v>0.1038166802868474</v>
+        <v>0.1155384065266034</v>
       </c>
       <c r="D17">
-        <v>0.2859653811346732</v>
+        <v>0.1028436098175831</v>
       </c>
       <c r="E17">
-        <v>0.08486320549177861</v>
+        <v>0.105114503922568</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008026030946170063</v>
+        <v>0.002482096026869032</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.544993650971151</v>
+        <v>0.589187685863692</v>
       </c>
       <c r="L17">
-        <v>0.3624808471411853</v>
+        <v>0.2298038401443421</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8650184030607093</v>
+        <v>2.026821548786653</v>
       </c>
       <c r="O17">
-        <v>2.98491594876117</v>
+        <v>4.671699336532612</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.86585745785905</v>
+        <v>0.9775418561316371</v>
       </c>
       <c r="C18">
-        <v>0.1029854653421154</v>
+        <v>0.1152435939455358</v>
       </c>
       <c r="D18">
-        <v>0.2785483786817053</v>
+        <v>0.1008349540907147</v>
       </c>
       <c r="E18">
-        <v>0.08342165411179181</v>
+        <v>0.1048788072514562</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008036976464526846</v>
+        <v>0.002482761620056131</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.505542567046376</v>
+        <v>0.5783695834775244</v>
       </c>
       <c r="L18">
-        <v>0.3537485352638754</v>
+        <v>0.2277198154385331</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8757391456707602</v>
+        <v>2.031335887370698</v>
       </c>
       <c r="O18">
-        <v>2.953102561497303</v>
+        <v>4.670190197973454</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.849627575058037</v>
+        <v>0.9733428887270748</v>
       </c>
       <c r="C19">
-        <v>0.1027041630448764</v>
+        <v>0.1151436138013153</v>
       </c>
       <c r="D19">
-        <v>0.2760424613530574</v>
+        <v>0.1001554780689133</v>
       </c>
       <c r="E19">
-        <v>0.08293587564749316</v>
+        <v>0.1047998488420276</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008040695287589079</v>
+        <v>0.002482988576586844</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.492203286272826</v>
+        <v>0.5747092422265325</v>
       </c>
       <c r="L19">
-        <v>0.3507995775452741</v>
+        <v>0.2270161169425791</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8793959634027502</v>
+        <v>2.032875277166919</v>
       </c>
       <c r="O19">
-        <v>2.942442192030455</v>
+        <v>4.669717749075403</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.922774592569539</v>
+        <v>0.9922641973900852</v>
       </c>
       <c r="C20">
-        <v>0.1039705858198516</v>
+        <v>0.1155928928419883</v>
       </c>
       <c r="D20">
-        <v>0.2873406931542206</v>
+        <v>0.1032156615130333</v>
       </c>
       <c r="E20">
-        <v>0.08513111318517019</v>
+        <v>0.1051585270918629</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008024011241137258</v>
+        <v>0.002481973598981199</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.552303990605481</v>
+        <v>0.5911910498832924</v>
       </c>
       <c r="L20">
-        <v>0.3641006977811259</v>
+        <v>0.2301904562842765</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8630471304977405</v>
+        <v>2.02599123012175</v>
       </c>
       <c r="O20">
-        <v>2.990857280618172</v>
+        <v>4.671996941474816</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.17062947551625</v>
+        <v>1.056280942449519</v>
       </c>
       <c r="C21">
-        <v>0.1082368498745154</v>
+        <v>0.1170911150754037</v>
       </c>
       <c r="D21">
-        <v>0.3257039579676473</v>
+        <v>0.1135406036008533</v>
       </c>
       <c r="E21">
-        <v>0.09267560932046237</v>
+        <v>0.1064223219782683</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007968823068697335</v>
+        <v>0.002478674280143496</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.755619848607381</v>
+        <v>0.6467386035162122</v>
       </c>
       <c r="L21">
-        <v>0.4093606025561627</v>
+        <v>0.2409889101232068</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8100490106704079</v>
+        <v>2.003621320672639</v>
       </c>
       <c r="O21">
-        <v>3.161636656959104</v>
+        <v>4.682334706428605</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.334369384847946</v>
+        <v>1.098447521205514</v>
       </c>
       <c r="C22">
-        <v>0.1110360097666998</v>
+        <v>0.1180618170759189</v>
       </c>
       <c r="D22">
-        <v>0.3511141662323638</v>
+        <v>0.1203206979393769</v>
       </c>
       <c r="E22">
-        <v>0.09774247873672692</v>
+        <v>0.10729195583475</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007933368749677177</v>
+        <v>0.002476600272184712</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.889680747931465</v>
+        <v>0.6831674891352861</v>
       </c>
       <c r="L22">
-        <v>0.4394116379424702</v>
+        <v>0.2481452839168981</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.776920866247039</v>
+        <v>1.989567910617808</v>
       </c>
       <c r="O22">
-        <v>3.279768162915843</v>
+        <v>4.691088935947334</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.246805006633736</v>
+        <v>1.075912597610625</v>
       </c>
       <c r="C23">
-        <v>0.1095408771238553</v>
+        <v>0.1175445139628053</v>
       </c>
       <c r="D23">
-        <v>0.3375188742391089</v>
+        <v>0.1166990931145904</v>
       </c>
       <c r="E23">
-        <v>0.09502505522693383</v>
+        <v>0.1068238243618751</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007952237339184931</v>
+        <v>0.002477699701988406</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.818011759195571</v>
+        <v>0.663713369810921</v>
       </c>
       <c r="L23">
-        <v>0.4233266432564733</v>
+        <v>0.2443167536353599</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.794459249819262</v>
+        <v>1.997016600555288</v>
       </c>
       <c r="O23">
-        <v>3.216091300982157</v>
+        <v>4.686233800246356</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.918750316349502</v>
+        <v>0.9912234530469561</v>
       </c>
       <c r="C24">
-        <v>0.1039010036784944</v>
+        <v>0.1155682629304025</v>
       </c>
       <c r="D24">
-        <v>0.286718824773331</v>
+        <v>0.1030474485301198</v>
       </c>
       <c r="E24">
-        <v>0.08500995145140777</v>
+        <v>0.1051386092480939</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008024924104336391</v>
+        <v>0.002482028918872178</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.54899869921536</v>
+        <v>0.5902852994482259</v>
       </c>
       <c r="L24">
-        <v>0.3633682328750041</v>
+        <v>0.2300156353477405</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8639378330229377</v>
+        <v>2.026366412952591</v>
       </c>
       <c r="O24">
-        <v>2.988169194609156</v>
+        <v>4.671861698063282</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.57119031307343</v>
+        <v>0.9012981695879034</v>
       </c>
       <c r="C25">
-        <v>0.09784854969805679</v>
+        <v>0.1134005317208491</v>
       </c>
       <c r="D25">
-        <v>0.2331359290036374</v>
+        <v>0.08845995276469409</v>
       </c>
       <c r="E25">
-        <v>0.07472636636705587</v>
+        <v>0.1035087574487115</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000810617208023745</v>
+        <v>0.002487054212762218</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.262958278416789</v>
+        <v>0.5116324117799991</v>
       </c>
       <c r="L25">
-        <v>0.3004239335724606</v>
+        <v>0.2150159724582039</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9449238707610945</v>
+        <v>2.060454395862454</v>
       </c>
       <c r="O25">
-        <v>2.76732551505782</v>
+        <v>4.664933586385416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8363156171869264</v>
+        <v>1.319410669366164</v>
       </c>
       <c r="C2">
-        <v>0.1117734916592923</v>
+        <v>0.09340239823447405</v>
       </c>
       <c r="D2">
-        <v>0.07783525045276463</v>
+        <v>0.1944784990834876</v>
       </c>
       <c r="E2">
-        <v>0.1024704006889756</v>
+        <v>0.06753358061025949</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002491063255316643</v>
+        <v>0.0008168661558569866</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4541948751577252</v>
+        <v>1.05490807573517</v>
       </c>
       <c r="L2">
-        <v>0.2043373006987821</v>
+        <v>0.2552613684496947</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.087643721067938</v>
+        <v>1.009322153558745</v>
       </c>
       <c r="O2">
-        <v>4.667196951816209</v>
+        <v>2.623190536239917</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7930457608114807</v>
+        <v>1.150769255728932</v>
       </c>
       <c r="C3">
-        <v>0.1106515677999624</v>
+        <v>0.0903883885707728</v>
       </c>
       <c r="D3">
-        <v>0.07070596847079003</v>
+        <v>0.168663604088394</v>
       </c>
       <c r="E3">
-        <v>0.1018676378114058</v>
+        <v>0.06286459236700637</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002493974534854532</v>
+        <v>0.0008212776572167434</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4155658996021145</v>
+        <v>0.9150594301882506</v>
       </c>
       <c r="L3">
-        <v>0.197327879259106</v>
+        <v>0.225254038238873</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.107374676167275</v>
+        <v>1.055746567610292</v>
       </c>
       <c r="O3">
-        <v>4.673320793562823</v>
+        <v>2.535658032372083</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7668591186546792</v>
+        <v>1.048029737055145</v>
       </c>
       <c r="C4">
-        <v>0.1099532293252281</v>
+        <v>0.08853527070036193</v>
       </c>
       <c r="D4">
-        <v>0.06636338544122111</v>
+        <v>0.1529681837794499</v>
       </c>
       <c r="E4">
-        <v>0.1015473777051668</v>
+        <v>0.06008987109079911</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00249585844233875</v>
+        <v>0.000824076532487897</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3919950610853959</v>
+        <v>0.8296237793846615</v>
       </c>
       <c r="L4">
-        <v>0.1931363442196528</v>
+        <v>0.2070833768529781</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.120133075942984</v>
+        <v>1.085563882028652</v>
       </c>
       <c r="O4">
-        <v>4.679344104076307</v>
+        <v>2.4865013484428</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7562842168974555</v>
+        <v>1.006341626094724</v>
       </c>
       <c r="C5">
-        <v>0.1096662779686355</v>
+        <v>0.08777920432254405</v>
       </c>
       <c r="D5">
-        <v>0.06460250007175716</v>
+        <v>0.1466064599714656</v>
       </c>
       <c r="E5">
-        <v>0.1014294161733886</v>
+        <v>0.05898100226654535</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002496650456142199</v>
+        <v>0.0008252402085964783</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3824272049627666</v>
+        <v>0.7948984417419354</v>
       </c>
       <c r="L5">
-        <v>0.1914565384443279</v>
+        <v>0.1997368010655407</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.125494014435709</v>
+        <v>1.098036275255158</v>
       </c>
       <c r="O5">
-        <v>4.682367818351679</v>
+        <v>2.46756538007736</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.754534097803969</v>
+        <v>0.9994294907564836</v>
       </c>
       <c r="C6">
-        <v>0.1096184868787589</v>
+        <v>0.08765359768518977</v>
       </c>
       <c r="D6">
-        <v>0.064310634898888</v>
+        <v>0.1455520387419398</v>
       </c>
       <c r="E6">
-        <v>0.1014105869972219</v>
+        <v>0.05879815864974347</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002496783439427212</v>
+        <v>0.0008254348442763597</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3808407423757956</v>
+        <v>0.7891372711494284</v>
       </c>
       <c r="L6">
-        <v>0.1911793172945409</v>
+        <v>0.1985202556744952</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.126393964899123</v>
+        <v>1.100126491741342</v>
       </c>
       <c r="O6">
-        <v>4.682904281780651</v>
+        <v>2.464485619997362</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7667161109718847</v>
+        <v>1.047466822099636</v>
       </c>
       <c r="C7">
-        <v>0.1099493689946627</v>
+        <v>0.08852507814249577</v>
       </c>
       <c r="D7">
-        <v>0.06633960209191514</v>
+        <v>0.1528822545510593</v>
       </c>
       <c r="E7">
-        <v>0.1015457360123797</v>
+        <v>0.0600748296822502</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002495869025285553</v>
+        <v>0.0008240921321219917</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3918658735122165</v>
+        <v>0.8291551187429889</v>
       </c>
       <c r="L7">
-        <v>0.193113575210603</v>
+        <v>0.2069840704234593</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.120204720407674</v>
+        <v>1.085730797785985</v>
       </c>
       <c r="O7">
-        <v>4.679382578347031</v>
+        <v>2.486241609070277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8213173354588434</v>
+        <v>1.261080804578967</v>
       </c>
       <c r="C8">
-        <v>0.1113886235954382</v>
+        <v>0.09236351379278318</v>
       </c>
       <c r="D8">
-        <v>0.07536984118594603</v>
+        <v>0.185542437830847</v>
       </c>
       <c r="E8">
-        <v>0.1022522323942461</v>
+        <v>0.06590380532154683</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00249204710703177</v>
+        <v>0.0008183687875607086</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4408451921290464</v>
+        <v>1.006587263185168</v>
       </c>
       <c r="L8">
-        <v>0.2018971735254098</v>
+        <v>0.2448585701755661</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.094313376982566</v>
+        <v>1.025051652596741</v>
       </c>
       <c r="O8">
-        <v>4.668838737293044</v>
+        <v>2.592021008248622</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9313990331465334</v>
+        <v>1.68754343577919</v>
       </c>
       <c r="C9">
-        <v>0.1141355475589734</v>
+        <v>0.09988470860454157</v>
       </c>
       <c r="D9">
-        <v>0.09335558895557483</v>
+        <v>0.2510460758150117</v>
       </c>
       <c r="E9">
-        <v>0.1040326659131665</v>
+        <v>0.07812722897912394</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002485313654592888</v>
+        <v>0.0008078403441449425</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5380532003003964</v>
+        <v>1.358850716968249</v>
       </c>
       <c r="L9">
-        <v>0.220011791889192</v>
+        <v>0.321423647886462</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.048647125427024</v>
+        <v>0.9168756181530426</v>
       </c>
       <c r="O9">
-        <v>4.666122741748751</v>
+        <v>2.838654834099572</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.014098052923998</v>
+        <v>2.007231799357839</v>
       </c>
       <c r="C10">
-        <v>0.1161075012547528</v>
+        <v>0.1054285167976232</v>
       </c>
       <c r="D10">
-        <v>0.1067418457980409</v>
+        <v>0.3003993234042355</v>
       </c>
       <c r="E10">
-        <v>0.1055812311562043</v>
+        <v>0.08768404446884404</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002480826033252774</v>
+        <v>0.0008004982377024666</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6101720689757144</v>
+        <v>1.621640119588506</v>
       </c>
       <c r="L10">
-        <v>0.2338636877011027</v>
+        <v>0.3794909259126342</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.018209023833151</v>
+        <v>0.8445826644807468</v>
       </c>
       <c r="O10">
-        <v>4.675087370947722</v>
+        <v>3.047912514021704</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.052113575151054</v>
+        <v>2.154470838107045</v>
       </c>
       <c r="C11">
-        <v>0.1169945250511617</v>
+        <v>0.1079598204051564</v>
       </c>
       <c r="D11">
-        <v>0.1128696878230784</v>
+        <v>0.3231991949601962</v>
       </c>
       <c r="E11">
-        <v>0.1063378830838566</v>
+        <v>0.09217902364870767</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002478883268352783</v>
+        <v>0.0007972362684354597</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6431318509854975</v>
+        <v>1.74237955827337</v>
       </c>
       <c r="L11">
-        <v>0.240283412380677</v>
+        <v>0.4064013572593552</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.005037845377107</v>
+        <v>0.8133967387496135</v>
       </c>
       <c r="O11">
-        <v>4.681548396607411</v>
+        <v>3.150200630407795</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.066565533051062</v>
+        <v>2.210524412445579</v>
       </c>
       <c r="C12">
-        <v>0.1173289689393116</v>
+        <v>0.108920197875463</v>
       </c>
       <c r="D12">
-        <v>0.1151956841728463</v>
+        <v>0.3318902959995427</v>
       </c>
       <c r="E12">
-        <v>0.1066319040977213</v>
+        <v>0.09390435088747751</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002478161707961562</v>
+        <v>0.0007960116261538381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6556345420018488</v>
+        <v>1.788301242005929</v>
       </c>
       <c r="L12">
-        <v>0.2427314045077935</v>
+        <v>0.4166717855398332</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.000147408409763</v>
+        <v>0.801845044066205</v>
       </c>
       <c r="O12">
-        <v>4.684337805304551</v>
+        <v>3.190045014800575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.063450549806191</v>
+        <v>2.198438429092164</v>
       </c>
       <c r="C13">
-        <v>0.1172570052473745</v>
+        <v>0.1087132740172976</v>
       </c>
       <c r="D13">
-        <v>0.1146944939655015</v>
+        <v>0.3300158449803234</v>
       </c>
       <c r="E13">
-        <v>0.106568248353458</v>
+        <v>0.09353170725243132</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002478316481814041</v>
+        <v>0.000796274913873765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6529409122864251</v>
+        <v>1.778401801587023</v>
       </c>
       <c r="L13">
-        <v>0.2422034311043859</v>
+        <v>0.4144561581572219</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.0011963267807</v>
+        <v>0.8043212237662267</v>
       </c>
       <c r="O13">
-        <v>4.683721810490908</v>
+        <v>3.181412937517649</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.053301421101082</v>
+        <v>2.159076218461053</v>
       </c>
       <c r="C14">
-        <v>0.1170220691291775</v>
+        <v>0.1080387917082817</v>
       </c>
       <c r="D14">
-        <v>0.1130609384131844</v>
+        <v>0.3239130262988539</v>
       </c>
       <c r="E14">
-        <v>0.1063619222674248</v>
+        <v>0.09232049112584662</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002478823622329494</v>
+        <v>0.0007971353077295719</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6441600255554363</v>
+        <v>1.746153378128042</v>
       </c>
       <c r="L14">
-        <v>0.2404844701033539</v>
+        <v>0.4072446547750559</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.004633557519082</v>
+        <v>0.8124411290556139</v>
       </c>
       <c r="O14">
-        <v>4.681771013023848</v>
+        <v>3.153455864836019</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.047092103157581</v>
+        <v>2.135005595536825</v>
       </c>
       <c r="C15">
-        <v>0.1168779744587525</v>
+        <v>0.1076259047922647</v>
       </c>
       <c r="D15">
-        <v>0.1120610567041496</v>
+        <v>0.3201825542799952</v>
       </c>
       <c r="E15">
-        <v>0.1062365170453639</v>
+        <v>0.09158166515808119</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002479136097850057</v>
+        <v>0.0007976636843630702</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6387842717812475</v>
+        <v>1.726427251581867</v>
       </c>
       <c r="L15">
-        <v>0.2394337669467603</v>
+        <v>0.4028380960496349</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.006751622243254</v>
+        <v>0.8174487803606816</v>
       </c>
       <c r="O15">
-        <v>4.680620733239948</v>
+        <v>3.136478700790974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.0116215576939</v>
+        <v>1.997648916998912</v>
       </c>
       <c r="C16">
-        <v>0.116049329455123</v>
+        <v>0.10526331891203</v>
       </c>
       <c r="D16">
-        <v>0.106342148830862</v>
+        <v>0.2989169144634616</v>
       </c>
       <c r="E16">
-        <v>0.105532831478655</v>
+        <v>0.08739342016249907</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002480954977488957</v>
+        <v>0.0008007129323320995</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6080211052189384</v>
+        <v>1.61377594164685</v>
       </c>
       <c r="L16">
-        <v>0.2334465225634261</v>
+        <v>0.3777429707110116</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.019083387883743</v>
+        <v>0.8466560623943806</v>
       </c>
       <c r="O16">
-        <v>4.674713086844179</v>
+        <v>3.041378042800773</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9899623928012886</v>
+        <v>1.913874297793029</v>
       </c>
       <c r="C17">
-        <v>0.1155384065266034</v>
+        <v>0.1038166802868545</v>
       </c>
       <c r="D17">
-        <v>0.1028436098175831</v>
+        <v>0.2859653811346732</v>
       </c>
       <c r="E17">
-        <v>0.105114503922568</v>
+        <v>0.08486320549177861</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002482096026869032</v>
+        <v>0.0008026030946171293</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.589187685863692</v>
+        <v>1.544993650971094</v>
       </c>
       <c r="L17">
-        <v>0.2298038401443421</v>
+        <v>0.362480847141228</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.026821548786653</v>
+        <v>0.8650184030607093</v>
       </c>
       <c r="O17">
-        <v>4.671699336532612</v>
+        <v>2.984915948761085</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9775418561316371</v>
+        <v>1.865857457859079</v>
       </c>
       <c r="C18">
-        <v>0.1152435939455358</v>
+        <v>0.1029854653419946</v>
       </c>
       <c r="D18">
-        <v>0.1008349540907147</v>
+        <v>0.2785483786817053</v>
       </c>
       <c r="E18">
-        <v>0.1048788072514562</v>
+        <v>0.08342165411179536</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002482761620056131</v>
+        <v>0.0008036976464853881</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5783695834775244</v>
+        <v>1.505542567046319</v>
       </c>
       <c r="L18">
-        <v>0.2277198154385331</v>
+        <v>0.3537485352638612</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.031335887370698</v>
+        <v>0.8757391456707673</v>
       </c>
       <c r="O18">
-        <v>4.670190197973454</v>
+        <v>2.953102561497332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9733428887270748</v>
+        <v>1.849627575058065</v>
       </c>
       <c r="C19">
-        <v>0.1151436138013153</v>
+        <v>0.1027041630450043</v>
       </c>
       <c r="D19">
-        <v>0.1001554780689133</v>
+        <v>0.2760424613528727</v>
       </c>
       <c r="E19">
-        <v>0.1047998488420276</v>
+        <v>0.08293587564751093</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002482988576586844</v>
+        <v>0.0008040695287302035</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5747092422265325</v>
+        <v>1.492203286272854</v>
       </c>
       <c r="L19">
-        <v>0.2270161169425791</v>
+        <v>0.3507995775452315</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.032875277166919</v>
+        <v>0.8793959634027537</v>
       </c>
       <c r="O19">
-        <v>4.669717749075403</v>
+        <v>2.942442192030427</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9922641973900852</v>
+        <v>1.922774592569709</v>
       </c>
       <c r="C20">
-        <v>0.1155928928419883</v>
+        <v>0.1039705858197308</v>
       </c>
       <c r="D20">
-        <v>0.1032156615130333</v>
+        <v>0.2873406931542064</v>
       </c>
       <c r="E20">
-        <v>0.1051585270918629</v>
+        <v>0.08513111318519506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002481973598981199</v>
+        <v>0.0008024011240809956</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5911910498832924</v>
+        <v>1.552303990605481</v>
       </c>
       <c r="L20">
-        <v>0.2301904562842765</v>
+        <v>0.3641006977812253</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.02599123012175</v>
+        <v>0.8630471304977831</v>
       </c>
       <c r="O20">
-        <v>4.671996941474816</v>
+        <v>2.990857280618172</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.056280942449519</v>
+        <v>2.17062947551625</v>
       </c>
       <c r="C21">
-        <v>0.1170911150754037</v>
+        <v>0.1082368498746504</v>
       </c>
       <c r="D21">
-        <v>0.1135406036008533</v>
+        <v>0.325703957967761</v>
       </c>
       <c r="E21">
-        <v>0.1064223219782683</v>
+        <v>0.09267560932046237</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002478674280143496</v>
+        <v>0.0007968823068071742</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6467386035162122</v>
+        <v>1.755619848607409</v>
       </c>
       <c r="L21">
-        <v>0.2409889101232068</v>
+        <v>0.4093606025561058</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.003621320672639</v>
+        <v>0.8100490106703333</v>
       </c>
       <c r="O21">
-        <v>4.682334706428605</v>
+        <v>3.161636656959104</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.098447521205514</v>
+        <v>2.33436938484806</v>
       </c>
       <c r="C22">
-        <v>0.1180618170759189</v>
+        <v>0.1110360097669272</v>
       </c>
       <c r="D22">
-        <v>0.1203206979393769</v>
+        <v>0.351114166232648</v>
       </c>
       <c r="E22">
-        <v>0.10729195583475</v>
+        <v>0.09774247873670916</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002476600272184712</v>
+        <v>0.0007933368749662244</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6831674891352861</v>
+        <v>1.889680747931408</v>
       </c>
       <c r="L22">
-        <v>0.2481452839168981</v>
+        <v>0.439411637942456</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.989567910617808</v>
+        <v>0.7769208662470248</v>
       </c>
       <c r="O22">
-        <v>4.691088935947334</v>
+        <v>3.279768162915843</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.075912597610625</v>
+        <v>2.246805006633679</v>
       </c>
       <c r="C23">
-        <v>0.1175445139628053</v>
+        <v>0.109540877123969</v>
       </c>
       <c r="D23">
-        <v>0.1166990931145904</v>
+        <v>0.3375188742390947</v>
       </c>
       <c r="E23">
-        <v>0.1068238243618751</v>
+        <v>0.09502505522696225</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002477699701988406</v>
+        <v>0.0007952237339472022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.663713369810921</v>
+        <v>1.818011759195571</v>
       </c>
       <c r="L23">
-        <v>0.2443167536353599</v>
+        <v>0.4233266432564164</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.997016600555288</v>
+        <v>0.7944592498192762</v>
       </c>
       <c r="O23">
-        <v>4.686233800246356</v>
+        <v>3.216091300982157</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9912234530469561</v>
+        <v>1.918750316349758</v>
       </c>
       <c r="C24">
-        <v>0.1155682629304025</v>
+        <v>0.1039010036782528</v>
       </c>
       <c r="D24">
-        <v>0.1030474485301198</v>
+        <v>0.2867188247732742</v>
       </c>
       <c r="E24">
-        <v>0.1051386092480939</v>
+        <v>0.08500995145139001</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002482028918872178</v>
+        <v>0.0008024924103733034</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5902852994482259</v>
+        <v>1.548998699215446</v>
       </c>
       <c r="L24">
-        <v>0.2300156353477405</v>
+        <v>0.3633682328750467</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.026366412952591</v>
+        <v>0.8639378330229732</v>
       </c>
       <c r="O24">
-        <v>4.671861698063282</v>
+        <v>2.988169194609299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9012981695879034</v>
+        <v>1.57119031307343</v>
       </c>
       <c r="C25">
-        <v>0.1134005317208491</v>
+        <v>0.09784854969805679</v>
       </c>
       <c r="D25">
-        <v>0.08845995276469409</v>
+        <v>0.2331359290035948</v>
       </c>
       <c r="E25">
-        <v>0.1035087574487115</v>
+        <v>0.07472636636704166</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002487054212762218</v>
+        <v>0.0008106172080546018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5116324117799991</v>
+        <v>1.262958278416903</v>
       </c>
       <c r="L25">
-        <v>0.2150159724582039</v>
+        <v>0.3004239335725032</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.060454395862454</v>
+        <v>0.9449238707611016</v>
       </c>
       <c r="O25">
-        <v>4.664933586385416</v>
+        <v>2.76732551505782</v>
       </c>
     </row>
   </sheetData>
